--- a/Themen/04/Gefaessversuch.xlsx
+++ b/Themen/04/Gefaessversuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">BM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM.sq</t>
   </si>
   <si>
     <t xml:space="preserve">K</t>
@@ -377,22 +374,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>118.337263527498</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.8782932267658</v>
       </c>
     </row>
     <row r="3">
@@ -400,69 +391,54 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>122.416500092788</v>
       </c>
-      <c r="D3" t="n">
-        <v>11.0641990262643</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>96.747781792419</v>
       </c>
-      <c r="D4" t="n">
-        <v>9.83604502797842</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>86.8578190903792</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.31975423980585</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>119.002597795787</v>
       </c>
-      <c r="D6" t="n">
-        <v>10.9088311837606</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>52.8974897450347</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.27306604844441</v>
       </c>
     </row>
     <row r="8">
@@ -470,13 +446,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>119.796260946183</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.9451478266026</v>
       </c>
     </row>
     <row r="9">
@@ -484,13 +457,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>91.8861015781964</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.58572384216218</v>
       </c>
     </row>
     <row r="10">
@@ -498,13 +468,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>91.6568878918743</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.57376038408494</v>
       </c>
     </row>
     <row r="11">
@@ -512,13 +479,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>74.3219340503005</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.62101699628881</v>
       </c>
     </row>
     <row r="12">
@@ -526,13 +490,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>117.194227883468</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.825628290472</v>
       </c>
     </row>
     <row r="13">
@@ -540,13 +501,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>188.402199336672</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.7259680655563</v>
       </c>
     </row>
     <row r="14">
@@ -554,13 +512,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>133.539790801482</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.5559417963869</v>
       </c>
     </row>
     <row r="15">
@@ -568,13 +523,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>138.776049715413</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.7803246863324</v>
       </c>
     </row>
     <row r="16">
@@ -582,13 +534,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>97.4998652996593</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.8742020082465</v>
       </c>
     </row>
     <row r="17">
@@ -596,13 +545,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>149.459176736749</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.2253497592809</v>
       </c>
     </row>
     <row r="18">
@@ -610,13 +556,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>93.5178685237689</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.67046371813518</v>
       </c>
     </row>
     <row r="19">
@@ -624,13 +567,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>110.305312852738</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10.5026336150862</v>
       </c>
     </row>
     <row r="20">
@@ -638,13 +578,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>160.809510412223</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.6810689775043</v>
       </c>
     </row>
     <row r="21">
@@ -652,13 +589,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>131.058662734955</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.4480855489009</v>
       </c>
     </row>
     <row r="22">
@@ -666,13 +600,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>230.11169410813</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.169432886833</v>
       </c>
     </row>
     <row r="23">
@@ -680,13 +611,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>261.911421428343</v>
-      </c>
-      <c r="D23" t="n">
-        <v>16.1836776237153</v>
       </c>
     </row>
     <row r="24">
@@ -694,13 +622,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
         <v>169.872314002896</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.033507356153</v>
       </c>
     </row>
     <row r="25">
@@ -708,13 +633,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
         <v>136.195759529281</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.6702938921555</v>
       </c>
     </row>
     <row r="26">
@@ -722,13 +644,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
         <v>134.639720623174</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11.6034357249555</v>
       </c>
     </row>
     <row r="27">
@@ -736,13 +655,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
         <v>279.145444157993</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.7076462782162</v>
       </c>
     </row>
     <row r="28">
@@ -750,13 +666,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>176.292775136472</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13.277528954458</v>
       </c>
     </row>
     <row r="29">
@@ -764,13 +677,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
         <v>222.921911624717</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.9305697019476</v>
       </c>
     </row>
     <row r="30">
@@ -778,13 +688,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>222.55225082441</v>
-      </c>
-      <c r="D30" t="n">
-        <v>14.9181852389763</v>
       </c>
     </row>
     <row r="31">
@@ -792,13 +699,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>189.242214889202</v>
-      </c>
-      <c r="D31" t="n">
-        <v>13.7565335346228</v>
       </c>
     </row>
     <row r="32">
@@ -806,13 +710,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>369.324212272533</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.2178097678308</v>
       </c>
     </row>
     <row r="33">
@@ -820,13 +721,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
         <v>453.487686171072</v>
-      </c>
-      <c r="D33" t="n">
-        <v>21.2952503195213</v>
       </c>
     </row>
     <row r="34">
@@ -834,13 +732,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>444.104435557502</v>
-      </c>
-      <c r="D34" t="n">
-        <v>21.0737855061093</v>
       </c>
     </row>
     <row r="35">
@@ -848,13 +743,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>418.148041755127</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.4486684592207</v>
       </c>
     </row>
     <row r="36">
@@ -862,13 +754,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
         <v>337.876115550823</v>
-      </c>
-      <c r="D36" t="n">
-        <v>18.3814067892211</v>
       </c>
     </row>
     <row r="37">
@@ -876,13 +765,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>351.067015413531</v>
-      </c>
-      <c r="D37" t="n">
-        <v>18.7367824189088</v>
       </c>
     </row>
     <row r="38">
@@ -890,13 +776,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
         <v>306.73564699686</v>
-      </c>
-      <c r="D38" t="n">
-        <v>17.5138701318943</v>
       </c>
     </row>
     <row r="39">
@@ -904,13 +787,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
         <v>240.464711611132</v>
-      </c>
-      <c r="D39" t="n">
-        <v>15.506924634212</v>
       </c>
     </row>
     <row r="40">
@@ -918,13 +798,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>426.488614624065</v>
-      </c>
-      <c r="D40" t="n">
-        <v>20.6516007763095</v>
       </c>
     </row>
     <row r="41">
@@ -932,13 +809,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>325.394754438732</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.0387015729717</v>
       </c>
     </row>
   </sheetData>
